--- a/biology/Zoologie/Charinus_lalylaurarum/Charinus_lalylaurarum.xlsx
+++ b/biology/Zoologie/Charinus_lalylaurarum/Charinus_lalylaurarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus lalylaurarum est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Guyane[1]. Elle se rencontre vers Roura.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Guyane. Elle se rencontre vers Roura.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se rencontre dans une fourmilière de Tetramorium sp.[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se rencontre dans une fourmilière de Tetramorium sp..
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 5,26 mm, sa carapace mesure 2,33 mm de long sur 2,84 mm de large et l'abdomen 2,93 mm de long[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 5,26 mm, sa carapace mesure 2,33 mm de long sur 2,84 mm de large et l'abdomen 2,93 mm de long
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite en 2023 par Éric Ythier et Alessandro Ponce de Leão Giupponi (d).
 </t>
@@ -635,9 +655,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Laly et Laura Ythier, les filles d'Éric Ythier[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Laly et Laura Ythier, les filles d'Éric Ythier.
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Éric Ythier et Alessandro Ponce de Leão Giupponi, « A new whip spider species of the genus Charinus Simon, 1892 (Amblypygi: Charinidae) from French Guiana », Faunitaxys, France, vol. 11, no 54,‎ 2023, p. 1-10 (ISSN 2269-6016, lire en ligne).</t>
         </is>
